--- a/1916025_寺崎大智_仕様書.xlsx
+++ b/1916025_寺崎大智_仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taich\OneDrive\Desktop\企画\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1916025\Desktop\horrorGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9784E188-49CC-45AC-8C80-ABC82F6C947E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E19FF62-EAB0-4247-9829-899DF3F5BA6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B79CBAE-25C3-46AE-A302-3AADB6DF8F18}"/>
   </bookViews>
@@ -20,28 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <si>
-    <t>仕様書</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -113,31 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部屋に貼れて(剥がせない)貼った部屋には敵が入れないように</t>
-    <rPh sb="0" eb="2">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハガ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -199,19 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・基本的にプレイヤーを中心に追従する（FPS）</t>
-    <rPh sb="1" eb="4">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツイジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ライト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,10 +304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キー、マウスのインプット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・プレイヤー、カメラ操作用</t>
     <rPh sb="10" eb="13">
       <t>ソウサヨウ</t>
@@ -369,19 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・マウスの視点操作は感度調整できればいいな</t>
-    <rPh sb="5" eb="9">
-      <t>シテンソウサ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -435,26 +364,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・音量</t>
-    <rPh sb="1" eb="3">
-      <t>オンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・視点移動感度調整</t>
-    <rPh sb="1" eb="3">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>カンドチョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シェーダー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,13 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・雰囲気作り</t>
-    <rPh sb="1" eb="5">
-      <t>フンイキツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・敵のもでる</t>
     <rPh sb="1" eb="2">
       <t>テキ</t>
@@ -502,14 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ドアとか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・アイテムとか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・プレイヤー、敵</t>
     <rPh sb="7" eb="8">
       <t>テキ</t>
@@ -521,16 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・これらの情報管理</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・タスクが追加されたらそれをリストで管理する</t>
     <rPh sb="5" eb="7">
       <t>ツイカ</t>
@@ -550,6 +434,312 @@
     </rPh>
     <rPh sb="12" eb="16">
       <t>シテンイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・足音</t>
+    <rPh sb="3" eb="5">
+      <t>アシオト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・敵の声</t>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・アイテムをとった音　</t>
+    <rPh sb="11" eb="12">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・ドアを開ける音</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ドア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　開け閉め出来る、めり込まないように</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・基本的にプレイヤーの近くを探索して見つかったら追いかけてくる</t>
+    <rPh sb="1" eb="4">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポストエフェクトでノイズ入れたり</t>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・ノイズ音</t>
+    <rPh sb="6" eb="7">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　赤：部屋に貼れて(剥がせない)貼った部屋には敵が入れないように</t>
+    <rPh sb="2" eb="3">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハガ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　青：一定時間敵の視点が見れる</t>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・FPS視点</t>
+    <rPh sb="4" eb="6">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・基本的にプレイヤーを中心に追従する</t>
+    <rPh sb="1" eb="4">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホラーゲーム仕様書</t>
+    <rPh sb="6" eb="9">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1人用</t>
+    <rPh sb="1" eb="3">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　プレイヤーはキーアイテムを集めて脱出できたら勝ち</t>
+    <rPh sb="15" eb="16">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　その過程で敵に捕まったら負け</t>
+    <rPh sb="4" eb="6">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・再開、タイトルに戻る</t>
+    <rPh sb="1" eb="3">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・音量変更</t>
+    <rPh sb="1" eb="3">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マウス感度調整</t>
+    <rPh sb="4" eb="8">
+      <t>カンドチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マウスの視点操作は感度調整できるように</t>
+    <rPh sb="5" eb="9">
+      <t>シテンソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インプット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パッドでもできるようにしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Easy、Normal、Hard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・難易度によってアイテムの数や、敵のスピードなどが変わる</t>
+    <rPh sb="1" eb="4">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タスク完了したらtrueを返す</t>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -607,7 +797,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -757,19 +947,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -789,13 +966,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,28 +1031,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,15 +1092,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>156881</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
+      <xdr:colOff>49305</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>635650</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257378</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>224116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -915,8 +1129,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="840440" y="6308910"/>
-          <a:ext cx="5263681" cy="4572001"/>
+          <a:off x="721658" y="9170892"/>
+          <a:ext cx="5586896" cy="5100919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1225,543 +1439,793 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302D0FC3-5D69-4171-9AA5-E3AAAF7D3B5C}">
-  <dimension ref="A2:S58"/>
+  <dimension ref="A2:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:L35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:16" ht="76.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="K4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
+    <row r="2" spans="1:16" ht="78" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="K11" s="13" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="K11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="K12" s="3"/>
-      <c r="L12" s="4" t="s">
-        <v>35</v>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B13" s="6"/>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="K15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B16" s="6"/>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="7"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="K18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K19" s="3"/>
-      <c r="L19" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="6"/>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="K18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
+      <c r="C19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="14"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K20" s="8"/>
       <c r="L20" s="9" t="s">
         <v>33</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="7"/>
-      <c r="K22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="K22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B23" s="6"/>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B24" s="6"/>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="6"/>
+      <c r="C25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="K26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K27" s="6"/>
+      <c r="L27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="6"/>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="6"/>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="7"/>
+      <c r="K30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="K32" s="8"/>
+      <c r="L32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="K24" s="8"/>
-      <c r="L24" s="9" t="s">
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="34" spans="11:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="35" spans="11:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K36" s="6"/>
+      <c r="L36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K37" s="8"/>
+      <c r="L37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="11:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="39" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K39" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K40" s="3"/>
+      <c r="L40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="26" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="K27" s="13" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K41" s="6"/>
+      <c r="L41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K42" s="6"/>
+      <c r="L42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K43" s="8"/>
+      <c r="L43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="10"/>
+    </row>
+    <row r="44" spans="11:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="11:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K46" s="6"/>
+      <c r="L46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K47" s="6"/>
+      <c r="L47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="11:16" x14ac:dyDescent="0.45">
+      <c r="K48" s="8"/>
+      <c r="L48" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="K50" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="K51" s="3"/>
+      <c r="L51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="K52" s="6"/>
+      <c r="L52" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="K53" s="8"/>
+      <c r="L53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c r="N53" s="10"/>
+    </row>
+    <row r="54" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="55" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="K28" s="11"/>
-      <c r="L28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="30" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="K31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="15"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="K32" s="3"/>
-      <c r="L32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K33" s="8"/>
-      <c r="L33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K36" s="3"/>
-      <c r="L36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K37" s="6"/>
-      <c r="L37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K38" s="8"/>
-      <c r="L38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K40" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K41" s="3"/>
-      <c r="L41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="K42" s="8"/>
-      <c r="L42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K44" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B45" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="6"/>
-      <c r="C47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B48" s="6"/>
-      <c r="C48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="7"/>
-      <c r="K48" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B49" s="6"/>
-      <c r="C49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="7"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="5"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B50" s="6"/>
-      <c r="C50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="7"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B51" s="8"/>
-      <c r="C51" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="14"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B55" s="6"/>
-      <c r="C55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B56" s="6"/>
-      <c r="C56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C56" s="17"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="10"/>
+    </row>
+    <row r="58" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="6"/>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B59" s="6"/>
+      <c r="C59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="7"/>
+      <c r="K59" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B60" s="6"/>
+      <c r="C60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="7"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B61" s="6"/>
+      <c r="C61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="7"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K63" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B64" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B65" s="6"/>
+      <c r="C65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B58" s="8"/>
-      <c r="C58" s="9" t="s">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B66" s="6"/>
+      <c r="C66" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="7"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B67" s="6"/>
+      <c r="C67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="7"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="7"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B68" s="6"/>
+      <c r="C68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="7"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B69" s="8"/>
+      <c r="C69" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="72" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B72" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="17"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B73" s="6"/>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B74" s="8"/>
+      <c r="C74" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="K63:L63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
